--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/oldschool-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/oldschool-rare.xlsx
@@ -82,13 +82,36 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: white
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t>Target player discards X cards at random.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 1× 𝗫 generic
+➤ 1 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">Reserved List
 Border: black
 Finish: normal</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Players can't play lands.
@@ -97,34 +120,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
 ➤ 3 black</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: white
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <t>Target player discards X cards at random.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 1× 𝗫 generic
-➤ 1 black</t>
         </r>
       </text>
     </comment>
@@ -141,6 +141,30 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Eternal Flame deals X damage to target opponent or planeswalker and half X damage, rounded up, to you, where X is the number of Mountains you control.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 2/2
 Reserved List
 Border: white
@@ -150,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Flying
@@ -158,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
@@ -166,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 3/3
@@ -178,14 +202,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <t>Flying</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 3 generic
@@ -193,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 0/0
@@ -203,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">This creature enters with X +1/+1 counters on it.
@@ -213,34 +237,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1× 𝗫 generic
-➤ 2 red</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <t>Eternal Flame deals X damage to target opponent or planeswalker and half X damage, rounded up, to you, where X is the number of Mountains you control.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
 ➤ 2 red</t>
         </r>
       </text>
@@ -258,31 +258,6 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/2
-Reserved List
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <t>{T}, Sacrifice a green creature: Target land becomes a Forest. (This effect lasts indefinitely.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 2 green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
           <t xml:space="preserve">Reserved List
 Border: white
 Finish: normal
@@ -291,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Enchant land
@@ -299,10 +274,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 1 generic
+➤ 2 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">P/T: 1/2
+Reserved List
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t>{T}, Sacrifice a green creature: Target land becomes a Forest. (This effect lasts indefinitely.)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
+          <t xml:space="preserve">➤ 2 generic
 ➤ 2 green</t>
         </r>
       </text>
@@ -495,6 +495,21 @@
     <t>Open Demonic Hordes</t>
   </si>
   <si>
+    <t>Mind Twist</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>{X}{B}</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>Open Mind Twist</t>
+  </si>
+  <si>
     <t>Worms of the Earth</t>
   </si>
   <si>
@@ -519,22 +534,25 @@
     <t>Open Worms of the Earth</t>
   </si>
   <si>
-    <t>Mind Twist</t>
+    <t>Oldschool (Rare) - Red</t>
   </si>
   <si>
-    <t>117</t>
+    <t>Eternal Flame</t>
   </si>
   <si>
-    <t>{X}{B}</t>
+    <t>61</t>
   </si>
   <si>
-    <t>6.46</t>
+    <t>{2}{R}{R}</t>
   </si>
   <si>
-    <t>Open Mind Twist</t>
+    <t>R</t>
   </si>
   <si>
-    <t>Oldschool (Rare) - Red</t>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>Open Eternal Flame</t>
   </si>
   <si>
     <t>Granite Gargoyle</t>
@@ -547,9 +565,6 @@
   </si>
   <si>
     <t>{2}{R}</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>2.19</t>
@@ -594,22 +609,28 @@
     <t>Open Rock Hydra</t>
   </si>
   <si>
-    <t>Eternal Flame</t>
+    <t>Oldschool (Rare) - Green</t>
   </si>
   <si>
-    <t>61</t>
+    <t>Kudzu</t>
   </si>
   <si>
-    <t>{2}{R}{R}</t>
+    <t>Enchantment — Aura</t>
   </si>
   <si>
-    <t>5.70</t>
+    <t>205</t>
   </si>
   <si>
-    <t>Open Eternal Flame</t>
+    <t>{1}{G}{G}</t>
   </si>
   <si>
-    <t>Oldschool (Rare) - Green</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>Open Kudzu</t>
   </si>
   <si>
     <t>Thelonite Monk</t>
@@ -630,31 +651,10 @@
     <t>{2}{G}{G}</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>0.69</t>
   </si>
   <si>
     <t>Open Thelonite Monk</t>
-  </si>
-  <si>
-    <t>Kudzu</t>
-  </si>
-  <si>
-    <t>Enchantment — Aura</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>{1}{G}{G}</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>Open Kudzu</t>
   </si>
   <si>
     <t>Oldschool (Rare) - Artifact (Colorless)</t>
@@ -757,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -789,39 +789,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,28 +818,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4687,31 +4647,31 @@
         <v>34</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="J4" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -4720,53 +4680,53 @@
         <v>31</v>
       </c>
       <c r="M4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="7">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8077,95 +8037,95 @@
         <v>48</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="9">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="9">
-        <v>3</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="15">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="L4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="15">
-        <v>4</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>16</v>
@@ -8174,7 +8134,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>18</v>
@@ -8183,68 +8143,68 @@
         <v>19</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="9">
+      <c r="N5" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="17">
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="17">
-        <v>4</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11556,86 +11516,86 @@
         <v>73</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="L3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="9">
+      <c r="N3" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="13">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="17">
-        <v>5</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="17">
-        <v>3</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="K4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -14957,10 +14917,10 @@
         <v>90</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>91</v>
@@ -14985,46 +14945,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>6</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -15045,10 +15005,10 @@
         <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>102</v>
